--- a/xls/square_high_un_16_tri3_22.xlsx
+++ b/xls/square_high_un_16_tri3_22.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>529</v>
+        <v>668</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22">
-        <v>2904</v>
+        <v>3738</v>
       </c>
       <c r="I22">
-        <v>-2.2016592340858554</v>
+        <v>-0.021633379422622414</v>
       </c>
       <c r="J22">
-        <v>-1.8291494888657887</v>
+        <v>-0.017715129532841965</v>
       </c>
       <c r="K22">
-        <v>0.42135179870212386</v>
+        <v>2.939993378139288</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>576</v>
+        <v>741</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23">
-        <v>3174</v>
+        <v>4164</v>
       </c>
       <c r="I23">
-        <v>-1.5805870590773539</v>
+        <v>-6.0417237008501815e-5</v>
       </c>
       <c r="J23">
-        <v>-1.3377424004298872</v>
+        <v>-7.937741159486279e-5</v>
       </c>
       <c r="K23">
-        <v>1.1894669524317494</v>
+        <v>2.451055647172192</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>-0.6338215521035726</v>
+        <v>-4.4720192238699974e-5</v>
       </c>
       <c r="J24">
-        <v>-0.5703268521763988</v>
+        <v>-4.2530750597683645e-5</v>
       </c>
       <c r="K24">
-        <v>2.193060075849327</v>
+        <v>2.254704936624458</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-0.0018408550162996124</v>
+        <v>-3.188464417282492e-5</v>
       </c>
       <c r="J25">
-        <v>-0.001792568891021834</v>
+        <v>-2.9824713910549876e-5</v>
       </c>
       <c r="K25">
-        <v>3.0343140124636236</v>
+        <v>2.1706769954622773</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-0.00021903926342199608</v>
+        <v>-1.2642161770788114e-5</v>
       </c>
       <c r="J26">
-        <v>-0.00019785098833715654</v>
+        <v>-1.3757475859886452e-5</v>
       </c>
       <c r="K26">
-        <v>2.5693570169007067</v>
+        <v>2.040797965431442</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-7.227949111196173e-5</v>
+        <v>-9.751594183624315e-6</v>
       </c>
       <c r="J27">
-        <v>-6.672695776241691e-5</v>
+        <v>-9.739197078411214e-6</v>
       </c>
       <c r="K27">
-        <v>2.344473390547456</v>
+        <v>1.9447090981885873</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-3.766332495393292e-5</v>
+        <v>-9.032508117090373e-6</v>
       </c>
       <c r="J28">
-        <v>-3.736741132412668e-5</v>
+        <v>-8.974857744461516e-6</v>
       </c>
       <c r="K28">
-        <v>2.2391639818433675</v>
+        <v>1.9246342605601259</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-2.3829151019491625e-5</v>
+        <v>-9.01642025786563e-6</v>
       </c>
       <c r="J29">
-        <v>-2.3179553391280946e-5</v>
+        <v>-8.860323921298424e-6</v>
       </c>
       <c r="K29">
-        <v>2.1326374462674513</v>
+        <v>1.9188332691417322</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-2.053296460738229e-5</v>
+        <v>-4.95025474582022e-6</v>
       </c>
       <c r="J30">
-        <v>-1.894238866487765e-5</v>
+        <v>-5.07362324511424e-6</v>
       </c>
       <c r="K30">
-        <v>2.072814665854004</v>
+        <v>1.8088729131746042</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -791,22 +791,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-1.319048412373374e-5</v>
+        <v>-6.068196282367814e-6</v>
       </c>
       <c r="J31">
-        <v>-1.25733874048537e-5</v>
+        <v>-5.701055459282378e-6</v>
       </c>
       <c r="K31">
-        <v>1.9924454710408712</v>
+        <v>1.812105843357546</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -826,22 +826,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-9.499225511127126e-6</v>
+        <v>-5.378898021918187e-6</v>
       </c>
       <c r="J32">
-        <v>-9.555375987577062e-6</v>
+        <v>-5.10501176845242e-6</v>
       </c>
       <c r="K32">
-        <v>1.947536900068618</v>
+        <v>1.7897056747914841</v>
       </c>
     </row>
   </sheetData>
